--- a/SupplFiles/Supp_Table_8.xlsx
+++ b/SupplFiles/Supp_Table_8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Manuscript_1\Supplemental files Pre_Post\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opiontki/Downloads/Supplemental files Pre_Post/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6EDC63EA-2480-42CB-93AA-839A436CA02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2373BC22-9EA3-4F8E-AA2B-8FD8C8BC1CF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831AF9C7-6B27-554E-9959-D0BC08466CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Supp_Table_8: Patient wise overall ADAR editing levels across pre-, mid-, and post-infection stages of SARS-CoV-2 infection.</t>
-  </si>
   <si>
     <t>patient_id</t>
   </si>
@@ -52,12 +47,15 @@
   <si>
     <t>Post-infection</t>
   </si>
+  <si>
+    <t>Supp_Table_8: Patient-wise overall ADAR editing levels across pre-, mid-, and post-infection stages of SARS-CoV-2 infection.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,9 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,21 +394,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="129">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -423,22 +417,22 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5039</v>
       </c>
@@ -452,7 +446,7 @@
         <v>0.40147229299999998</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5124</v>
       </c>
@@ -466,7 +460,7 @@
         <v>0.29452903000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5152</v>
       </c>
@@ -480,7 +474,7 @@
         <v>0.73107320399999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5156</v>
       </c>
@@ -494,7 +488,7 @@
         <v>0.25706874200000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5316</v>
       </c>
@@ -508,7 +502,7 @@
         <v>0.249719043</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5412</v>
       </c>
@@ -522,7 +516,7 @@
         <v>0.20553271200000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5743</v>
       </c>
@@ -536,7 +530,7 @@
         <v>0.66459533400000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5894</v>
       </c>
@@ -550,7 +544,7 @@
         <v>0.46144532999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6207</v>
       </c>
@@ -564,7 +558,7 @@
         <v>0.22516664</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6250</v>
       </c>
@@ -578,7 +572,7 @@
         <v>0.248625441</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6453</v>
       </c>
@@ -592,7 +586,7 @@
         <v>0.21248070799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6582</v>
       </c>
@@ -606,7 +600,7 @@
         <v>0.23226026499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6599</v>
       </c>
@@ -620,7 +614,7 @@
         <v>0.25788324099999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6636</v>
       </c>
@@ -634,7 +628,7 @@
         <v>0.48321703900000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6663</v>
       </c>
@@ -648,7 +642,7 @@
         <v>0.35608950900000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6911</v>
       </c>
@@ -662,7 +656,7 @@
         <v>0.28097520799999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7030</v>
       </c>
@@ -676,7 +670,7 @@
         <v>0.234723603</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7160</v>
       </c>
@@ -690,7 +684,7 @@
         <v>0.224591127</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7247</v>
       </c>
@@ -704,7 +698,7 @@
         <v>0.24066088099999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7252</v>
       </c>
@@ -718,7 +712,7 @@
         <v>0.479963474</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7577</v>
       </c>
@@ -732,7 +726,7 @@
         <v>0.202877643</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7589</v>
       </c>
@@ -746,7 +740,7 @@
         <v>0.25387939700000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7647</v>
       </c>
@@ -760,7 +754,7 @@
         <v>0.70956823099999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7683</v>
       </c>
@@ -774,7 +768,7 @@
         <v>0.22966852600000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7733</v>
       </c>
@@ -788,7 +782,7 @@
         <v>0.24985818300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7893</v>
       </c>
@@ -802,7 +796,7 @@
         <v>0.66969003299999996</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8015</v>
       </c>
@@ -816,7 +810,7 @@
         <v>0.25776672299999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8359</v>
       </c>
@@ -830,7 +824,7 @@
         <v>0.23923599000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8360</v>
       </c>
@@ -844,7 +838,7 @@
         <v>0.23031295700000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8610</v>
       </c>
@@ -858,7 +852,7 @@
         <v>0.20021617999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8640</v>
       </c>
@@ -872,7 +866,7 @@
         <v>0.21537772099999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8656</v>
       </c>
@@ -886,7 +880,7 @@
         <v>0.27706050799999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8968</v>
       </c>
@@ -900,7 +894,7 @@
         <v>0.198804388</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9088</v>
       </c>
@@ -914,7 +908,7 @@
         <v>0.20770803800000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9140</v>
       </c>
@@ -928,7 +922,7 @@
         <v>0.23216368300000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9192</v>
       </c>
@@ -942,7 +936,7 @@
         <v>0.20042330899999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9198</v>
       </c>
@@ -956,7 +950,7 @@
         <v>0.203654738</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9247</v>
       </c>
@@ -970,7 +964,7 @@
         <v>0.30444470899999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9249</v>
       </c>
@@ -984,7 +978,7 @@
         <v>0.22537353500000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9373</v>
       </c>
@@ -998,7 +992,7 @@
         <v>0.25550125699999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9388</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>0.23559212199999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9415</v>
       </c>
@@ -1026,7 +1020,7 @@
         <v>0.29556273700000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9918</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>0.248861727</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9943</v>
       </c>
@@ -1054,7 +1048,7 @@
         <v>0.28871528899999999</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9997</v>
       </c>
